--- a/Excel2Json/Test/name.xlsx
+++ b/Excel2Json/Test/name.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="550">
   <si>
     <t>黑骑</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2355,47 +2355,43 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>last_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[1000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>first_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>last_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
+    <t>string;32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2851,8 +2847,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G983"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A690" workbookViewId="0">
+      <selection activeCell="E700" sqref="E700"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -2875,46 +2871,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>542</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>544</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>540</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
